--- a/InputsData/Rainfall_EventsCharacteristics.xlsx
+++ b/InputsData/Rainfall_EventsCharacteristics.xlsx
@@ -1610,8 +1610,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010090E2F3373884014A91EB531DC859069F" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="68bb6f05d204b4f7a11ff7c2fc734609">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea60a7b2-88aa-41e2-9676-c02d4cc6f5e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="546f304f191a714413a456dcee5e7784" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010090E2F3373884014A91EB531DC859069F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="09426021cb9970de231e32d57c566f52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea60a7b2-88aa-41e2-9676-c02d4cc6f5e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ee9576dbc2b49a0a47f52fea154cdf9" ns2:_="">
     <xsd:import namespace="ea60a7b2-88aa-41e2-9676-c02d4cc6f5e8"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1621,6 +1621,12 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1639,6 +1645,40 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1767,21 +1807,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A773F84-8FBA-4967-A7B0-2CD33D40106D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ea60a7b2-88aa-41e2-9676-c02d4cc6f5e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01462DB3-5542-4B3C-BA43-00C1BFA03973}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
